--- a/gamsWorkSpace/aerzte.xlsx
+++ b/gamsWorkSpace/aerzte.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\itStud9Lp2024\gamsWorkSpace\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\itStud9Lp2024\gamsWorkSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97E766D-9EA4-4151-A93F-618BCB4B0721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104044CB-D2B5-4DB8-A9E4-3E491D24EAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC869186-945C-4085-8A53-86DCFD75D10A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>p1</t>
   </si>
@@ -108,20 +108,32 @@
     <t>p20</t>
   </si>
   <si>
-    <t>P</t>
+    <t>Ärzte</t>
+  </si>
+  <si>
+    <t>Qualifikation</t>
+  </si>
+  <si>
+    <t>Contract</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,10 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,242 +478,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFC08F2-0AB4-4888-AEDA-17B8FC7AB07F}">
-  <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/gamsWorkSpace/aerzte.xlsx
+++ b/gamsWorkSpace/aerzte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\itStud9Lp2024\gamsWorkSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104044CB-D2B5-4DB8-A9E4-3E491D24EAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D12103-9A7F-4EB1-87FE-C9AC6BD358AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC869186-945C-4085-8A53-86DCFD75D10A}"/>
+    <workbookView xWindow="3480" yWindow="5100" windowWidth="21600" windowHeight="11295" xr2:uid="{BC869186-945C-4085-8A53-86DCFD75D10A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>231</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>223</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>232</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>535</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>223</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
